--- a/hbv_v14_gamma_vimc.xlsx
+++ b/hbv_v14_gamma_vimc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\hepb-vimc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Phil\Documents\GitHub\hbv-globalinvcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD6CF0C-9F90-42EF-A997-9C34B1FE35C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3156461C-5AF8-4E11-8D46-CF7927814DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32310" yWindow="3510" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="6" xr2:uid="{00121D21-746A-4F35-B812-2659197875EA}"/>
+    <workbookView xWindow="43200" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="6" xr2:uid="{00121D21-746A-4F35-B812-2659197875EA}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -2910,7 +2910,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1177" uniqueCount="732">
   <si>
     <t>Datasheet Code Name</t>
   </si>
@@ -5097,6 +5097,15 @@
   </si>
   <si>
     <t>(dw_acu_m *(1-prop_sev)+ dw_acu_s*prop_sev) * :j_acu * acu_dur * prop_symp</t>
+  </si>
+  <si>
+    <t>mav_births</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maternal Antiviral and HBIG coverage number </t>
+  </si>
+  <si>
+    <t>e_preg*b_rate*mav</t>
   </si>
 </sst>
 </file>
@@ -5584,7 +5593,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="39">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6512,12 +6535,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1 B4:B1048576">
-    <cfRule type="expression" dxfId="36" priority="2">
+    <cfRule type="expression" dxfId="38" priority="2">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="expression" dxfId="35" priority="1">
+    <cfRule type="expression" dxfId="37" priority="1">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6876,12 +6899,12 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="34" priority="4">
+    <cfRule type="expression" dxfId="36" priority="4">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12366,12 +12389,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="32" priority="6">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H1048576">
-    <cfRule type="expression" dxfId="29" priority="5">
+    <cfRule type="expression" dxfId="31" priority="5">
       <formula>AND(I2&lt;&gt;"",NOT(H2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12421,11 +12444,11 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P229"/>
+  <dimension ref="A1:P230"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B198" sqref="B198"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M73" sqref="M73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13739,50 +13762,50 @@
       <c r="O72" s="74"/>
       <c r="P72" s="74"/>
     </row>
-    <row r="73" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="69" t="s">
+    <row r="73" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="72" t="s">
+        <v>729</v>
+      </c>
+      <c r="B73" s="73" t="s">
+        <v>730</v>
+      </c>
+      <c r="H73" s="73" t="s">
+        <v>731</v>
+      </c>
+      <c r="I73" s="74"/>
+      <c r="J73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+    </row>
+    <row r="74" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B74" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="70"/>
-      <c r="G73" s="70"/>
-      <c r="I73" s="70"/>
-      <c r="J73" s="70"/>
-      <c r="K73" s="70"/>
-      <c r="L73" s="70"/>
-      <c r="N73" s="70"/>
-      <c r="O73" s="70"/>
-      <c r="P73" s="70"/>
-    </row>
-    <row r="74" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="B74" s="73" t="s">
-        <v>518</v>
-      </c>
-      <c r="F74" s="74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="O74" s="74"/>
-      <c r="P74" s="74"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="70"/>
+      <c r="L74" s="70"/>
+      <c r="N74" s="70"/>
+      <c r="O74" s="70"/>
+      <c r="P74" s="70"/>
     </row>
     <row r="75" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A75" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B75" s="73" t="s">
-        <v>519</v>
+        <v>518</v>
+      </c>
+      <c r="F75" s="74">
+        <v>1</v>
       </c>
       <c r="I75" s="74"/>
       <c r="J75" s="74"/>
@@ -13794,13 +13817,10 @@
     </row>
     <row r="76" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A76" s="72" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B76" s="73" t="s">
-        <v>520</v>
-      </c>
-      <c r="H76" s="75" t="s">
-        <v>538</v>
+        <v>519</v>
       </c>
       <c r="I76" s="74"/>
       <c r="J76" s="74"/>
@@ -13812,10 +13832,10 @@
     </row>
     <row r="77" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A77" s="72" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B77" s="73" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H77" s="75" t="s">
         <v>538</v>
@@ -13830,67 +13850,70 @@
     </row>
     <row r="78" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A78" s="72" t="s">
-        <v>650</v>
+        <v>349</v>
       </c>
       <c r="B78" s="73" t="s">
-        <v>651</v>
-      </c>
-      <c r="C78" s="74" t="s">
-        <v>236</v>
+        <v>521</v>
       </c>
       <c r="H78" s="75" t="s">
-        <v>652</v>
+        <v>538</v>
       </c>
       <c r="I78" s="74"/>
       <c r="J78" s="74"/>
-      <c r="K78" s="74"/>
+      <c r="K78" s="74" t="s">
+        <v>46</v>
+      </c>
       <c r="O78" s="74"/>
       <c r="P78" s="74"/>
     </row>
-    <row r="79" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="69" t="s">
+    <row r="79" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="72" t="s">
+        <v>650</v>
+      </c>
+      <c r="B79" s="73" t="s">
+        <v>651</v>
+      </c>
+      <c r="C79" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="75" t="s">
+        <v>652</v>
+      </c>
+      <c r="I79" s="74"/>
+      <c r="J79" s="74"/>
+      <c r="K79" s="74"/>
+      <c r="O79" s="74"/>
+      <c r="P79" s="74"/>
+    </row>
+    <row r="80" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B80" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="C79" s="70"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="70"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="70"/>
-      <c r="I79" s="70"/>
-      <c r="J79" s="70"/>
-      <c r="K79" s="70"/>
-      <c r="L79" s="70"/>
-      <c r="N79" s="70"/>
-      <c r="O79" s="70"/>
-      <c r="P79" s="70"/>
-    </row>
-    <row r="80" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="72" t="s">
-        <v>345</v>
-      </c>
-      <c r="B80" s="73" t="s">
-        <v>522</v>
-      </c>
-      <c r="H80" s="73" t="s">
-        <v>693</v>
-      </c>
-      <c r="I80" s="74"/>
-      <c r="J80" s="74"/>
-      <c r="O80" s="74"/>
-      <c r="P80" s="74"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="70"/>
+      <c r="I80" s="70"/>
+      <c r="J80" s="70"/>
+      <c r="K80" s="70"/>
+      <c r="L80" s="70"/>
+      <c r="N80" s="70"/>
+      <c r="O80" s="70"/>
+      <c r="P80" s="70"/>
     </row>
     <row r="81" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A81" s="72" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H81" s="73" t="s">
-        <v>534</v>
+        <v>693</v>
       </c>
       <c r="I81" s="74"/>
       <c r="J81" s="74"/>
@@ -13899,16 +13922,13 @@
     </row>
     <row r="82" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A82" s="72" t="s">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>524</v>
-      </c>
-      <c r="C82" s="73" t="s">
-        <v>237</v>
+        <v>523</v>
       </c>
       <c r="H82" s="73" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I82" s="74"/>
       <c r="J82" s="74"/>
@@ -13917,13 +13937,16 @@
     </row>
     <row r="83" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A83" s="72" t="s">
-        <v>348</v>
+        <v>143</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="C83" s="73" t="s">
+        <v>237</v>
       </c>
       <c r="H83" s="73" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I83" s="74"/>
       <c r="J83" s="74"/>
@@ -13932,16 +13955,13 @@
     </row>
     <row r="84" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A84" s="72" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>526</v>
-      </c>
-      <c r="C84" s="73" t="s">
-        <v>237</v>
+        <v>525</v>
       </c>
       <c r="H84" s="73" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I84" s="74"/>
       <c r="J84" s="74"/>
@@ -13950,72 +13970,72 @@
     </row>
     <row r="85" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A85" s="72" t="s">
-        <v>639</v>
+        <v>142</v>
       </c>
       <c r="B85" s="73" t="s">
-        <v>640</v>
+        <v>526</v>
       </c>
       <c r="C85" s="73" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H85" s="73" t="s">
-        <v>641</v>
+        <v>537</v>
       </c>
       <c r="I85" s="74"/>
       <c r="J85" s="74"/>
       <c r="O85" s="74"/>
       <c r="P85" s="74"/>
     </row>
-    <row r="86" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="69" t="s">
+    <row r="86" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="72" t="s">
+        <v>639</v>
+      </c>
+      <c r="B86" s="73" t="s">
+        <v>640</v>
+      </c>
+      <c r="C86" s="73" t="s">
+        <v>236</v>
+      </c>
+      <c r="H86" s="73" t="s">
+        <v>641</v>
+      </c>
+      <c r="I86" s="74"/>
+      <c r="J86" s="74"/>
+      <c r="O86" s="74"/>
+      <c r="P86" s="74"/>
+    </row>
+    <row r="87" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B86" s="70" t="s">
+      <c r="B87" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="C86" s="70"/>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="70"/>
-      <c r="I86" s="70"/>
-      <c r="J86" s="70"/>
-      <c r="K86" s="70"/>
-      <c r="L86" s="70"/>
-      <c r="N86" s="70"/>
-      <c r="O86" s="70"/>
-      <c r="P86" s="70"/>
-    </row>
-    <row r="87" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="73" t="s">
-        <v>539</v>
-      </c>
-      <c r="C87" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="F87" s="73">
-        <v>0</v>
-      </c>
-      <c r="I87" s="74"/>
-      <c r="J87" s="74"/>
-      <c r="K87" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="O87" s="74"/>
-      <c r="P87" s="74"/>
+      <c r="C87" s="70"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="70"/>
+      <c r="I87" s="70"/>
+      <c r="J87" s="70"/>
+      <c r="K87" s="70"/>
+      <c r="L87" s="70"/>
+      <c r="N87" s="70"/>
+      <c r="O87" s="70"/>
+      <c r="P87" s="70"/>
     </row>
     <row r="88" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A88" s="72" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B88" s="73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C88" s="73" t="s">
         <v>240</v>
+      </c>
+      <c r="F88" s="73">
+        <v>0</v>
       </c>
       <c r="I88" s="74"/>
       <c r="J88" s="74"/>
@@ -14027,10 +14047,10 @@
     </row>
     <row r="89" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A89" s="72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B89" s="73" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C89" s="73" t="s">
         <v>240</v>
@@ -14045,93 +14065,96 @@
     </row>
     <row r="90" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A90" s="72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90" s="73" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C90" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="H90" s="73" t="s">
-        <v>355</v>
-      </c>
       <c r="I90" s="74"/>
       <c r="J90" s="74"/>
+      <c r="K90" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="O90" s="74"/>
       <c r="P90" s="74"/>
     </row>
-    <row r="91" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="69" t="s">
+    <row r="91" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A91" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B91" s="73" t="s">
+        <v>542</v>
+      </c>
+      <c r="C91" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="H91" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="I91" s="74"/>
+      <c r="J91" s="74"/>
+      <c r="O91" s="74"/>
+      <c r="P91" s="74"/>
+    </row>
+    <row r="92" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B91" s="70" t="s">
+      <c r="B92" s="70" t="s">
         <v>366</v>
       </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="70"/>
-      <c r="I91" s="70"/>
-      <c r="J91" s="70"/>
-      <c r="K91" s="70"/>
-      <c r="L91" s="70"/>
-      <c r="N91" s="70"/>
-      <c r="O91" s="70"/>
-      <c r="P91" s="70"/>
-    </row>
-    <row r="92" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="B92" s="73" t="s">
-        <v>357</v>
-      </c>
-      <c r="I92" s="74"/>
-      <c r="J92" s="74"/>
-      <c r="K92" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="O92" s="74"/>
-      <c r="P92" s="74"/>
+      <c r="C92" s="70"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="70"/>
+      <c r="F92" s="70"/>
+      <c r="G92" s="70"/>
+      <c r="I92" s="70"/>
+      <c r="J92" s="70"/>
+      <c r="K92" s="70"/>
+      <c r="L92" s="70"/>
+      <c r="N92" s="70"/>
+      <c r="O92" s="70"/>
+      <c r="P92" s="70"/>
     </row>
     <row r="93" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A93" s="72" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="B93" s="73" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="I93" s="74"/>
       <c r="J93" s="74"/>
       <c r="K93" s="74" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="O93" s="74"/>
       <c r="P93" s="74"/>
     </row>
     <row r="94" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A94" s="72" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="B94" s="73" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="I94" s="74"/>
       <c r="J94" s="74"/>
       <c r="K94" s="74" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O94" s="74"/>
       <c r="P94" s="74"/>
     </row>
     <row r="95" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A95" s="72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B95" s="73" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I95" s="74"/>
       <c r="J95" s="74"/>
@@ -14143,10 +14166,10 @@
     </row>
     <row r="96" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A96" s="72" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B96" s="73" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I96" s="74"/>
       <c r="J96" s="74"/>
@@ -14158,10 +14181,10 @@
     </row>
     <row r="97" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A97" s="72" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B97" s="73" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I97" s="74"/>
       <c r="J97" s="74"/>
@@ -14171,55 +14194,47 @@
       <c r="O97" s="74"/>
       <c r="P97" s="74"/>
     </row>
-    <row r="98" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="69" t="s">
+    <row r="98" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="72" t="s">
+        <v>364</v>
+      </c>
+      <c r="B98" s="73" t="s">
+        <v>365</v>
+      </c>
+      <c r="I98" s="74"/>
+      <c r="J98" s="74"/>
+      <c r="K98" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="O98" s="74"/>
+      <c r="P98" s="74"/>
+    </row>
+    <row r="99" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B98" s="70" t="s">
+      <c r="B99" s="70" t="s">
         <v>367</v>
       </c>
-      <c r="C98" s="70"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="70"/>
-      <c r="F98" s="70"/>
-      <c r="G98" s="70"/>
-      <c r="I98" s="70"/>
-      <c r="J98" s="70"/>
-      <c r="K98" s="70"/>
-      <c r="L98" s="70"/>
-      <c r="N98" s="70"/>
-      <c r="O98" s="70"/>
-      <c r="P98" s="70"/>
-    </row>
-    <row r="99" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="81" t="s">
-        <v>653</v>
-      </c>
-      <c r="B99" s="81" t="s">
-        <v>654</v>
-      </c>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
-      <c r="F99" s="82"/>
-      <c r="G99" s="82"/>
-      <c r="H99" s="83"/>
-      <c r="I99" s="79"/>
-      <c r="J99" s="79"/>
-      <c r="K99" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="L99" s="79"/>
-      <c r="N99" s="79"/>
-      <c r="O99" s="79"/>
-      <c r="P99" s="79"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70"/>
+      <c r="G99" s="70"/>
+      <c r="I99" s="70"/>
+      <c r="J99" s="70"/>
+      <c r="K99" s="70"/>
+      <c r="L99" s="70"/>
+      <c r="N99" s="70"/>
+      <c r="O99" s="70"/>
+      <c r="P99" s="70"/>
     </row>
     <row r="100" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="81" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B100" s="81" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C100" s="82"/>
       <c r="D100" s="82"/>
@@ -14239,24 +14254,22 @@
     </row>
     <row r="101" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="81" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B101" s="81" t="s">
-        <v>657</v>
-      </c>
-      <c r="C101" s="82" t="s">
-        <v>236</v>
-      </c>
+        <v>671</v>
+      </c>
+      <c r="C101" s="82"/>
       <c r="D101" s="82"/>
       <c r="E101" s="82"/>
       <c r="F101" s="82"/>
       <c r="G101" s="82"/>
-      <c r="H101" s="83" t="s">
-        <v>658</v>
-      </c>
+      <c r="H101" s="83"/>
       <c r="I101" s="79"/>
       <c r="J101" s="79"/>
-      <c r="K101" s="79"/>
+      <c r="K101" s="79" t="s">
+        <v>50</v>
+      </c>
       <c r="L101" s="79"/>
       <c r="N101" s="79"/>
       <c r="O101" s="79"/>
@@ -14264,10 +14277,10 @@
     </row>
     <row r="102" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="81" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B102" s="81" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C102" s="82" t="s">
         <v>236</v>
@@ -14277,7 +14290,7 @@
       <c r="F102" s="82"/>
       <c r="G102" s="82"/>
       <c r="H102" s="83" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="I102" s="79"/>
       <c r="J102" s="79"/>
@@ -14289,18 +14302,20 @@
     </row>
     <row r="103" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="81" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B103" s="81" t="s">
-        <v>663</v>
-      </c>
-      <c r="C103" s="82"/>
+        <v>660</v>
+      </c>
+      <c r="C103" s="82" t="s">
+        <v>236</v>
+      </c>
       <c r="D103" s="82"/>
       <c r="E103" s="82"/>
       <c r="F103" s="82"/>
       <c r="G103" s="82"/>
       <c r="H103" s="83" t="s">
-        <v>692</v>
+        <v>661</v>
       </c>
       <c r="I103" s="79"/>
       <c r="J103" s="79"/>
@@ -14312,20 +14327,18 @@
     </row>
     <row r="104" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="81" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B104" s="81" t="s">
-        <v>665</v>
-      </c>
-      <c r="C104" s="82" t="s">
-        <v>237</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="C104" s="82"/>
       <c r="D104" s="82"/>
       <c r="E104" s="82"/>
       <c r="F104" s="82"/>
       <c r="G104" s="82"/>
       <c r="H104" s="83" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="I104" s="79"/>
       <c r="J104" s="79"/>
@@ -14337,18 +14350,20 @@
     </row>
     <row r="105" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="81" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B105" s="81" t="s">
-        <v>668</v>
-      </c>
-      <c r="C105" s="82"/>
+        <v>665</v>
+      </c>
+      <c r="C105" s="82" t="s">
+        <v>237</v>
+      </c>
       <c r="D105" s="82"/>
       <c r="E105" s="82"/>
       <c r="F105" s="82"/>
       <c r="G105" s="82"/>
       <c r="H105" s="83" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="I105" s="79"/>
       <c r="J105" s="79"/>
@@ -14358,130 +14373,135 @@
       <c r="O105" s="79"/>
       <c r="P105" s="79"/>
     </row>
-    <row r="106" spans="1:16" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="81" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="B106" s="81" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="C106" s="82"/>
       <c r="D106" s="82"/>
       <c r="E106" s="82"/>
       <c r="F106" s="82"/>
       <c r="G106" s="82"/>
-      <c r="H106" s="83"/>
+      <c r="H106" s="83" t="s">
+        <v>669</v>
+      </c>
       <c r="I106" s="79"/>
       <c r="J106" s="79"/>
-      <c r="K106" s="74" t="s">
-        <v>50</v>
-      </c>
+      <c r="K106" s="79"/>
       <c r="L106" s="79"/>
       <c r="N106" s="79"/>
       <c r="O106" s="79"/>
       <c r="P106" s="79"/>
     </row>
-    <row r="107" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A107" s="73" t="s">
-        <v>672</v>
-      </c>
-      <c r="B107" s="73" t="s">
-        <v>673</v>
-      </c>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
+    <row r="107" spans="1:16" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="81" t="s">
+        <v>670</v>
+      </c>
+      <c r="B107" s="81" t="s">
+        <v>682</v>
+      </c>
+      <c r="C107" s="82"/>
+      <c r="D107" s="82"/>
+      <c r="E107" s="82"/>
+      <c r="F107" s="82"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="83"/>
+      <c r="I107" s="79"/>
+      <c r="J107" s="79"/>
       <c r="K107" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
+      <c r="L107" s="79"/>
+      <c r="N107" s="79"/>
+      <c r="O107" s="79"/>
+      <c r="P107" s="79"/>
     </row>
     <row r="108" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A108" s="72" t="s">
-        <v>674</v>
+      <c r="A108" s="73" t="s">
+        <v>672</v>
       </c>
       <c r="B108" s="73" t="s">
-        <v>675</v>
-      </c>
-      <c r="C108" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="H108" s="73" t="s">
-        <v>699</v>
+        <v>673</v>
       </c>
       <c r="I108" s="74"/>
       <c r="J108" s="74"/>
+      <c r="K108" s="74" t="s">
+        <v>50</v>
+      </c>
       <c r="O108" s="74"/>
       <c r="P108" s="74"/>
     </row>
     <row r="109" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A109" s="72" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B109" s="73" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C109" s="74" t="s">
         <v>237</v>
       </c>
       <c r="H109" s="73" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I109" s="74"/>
       <c r="J109" s="74"/>
       <c r="O109" s="74"/>
       <c r="P109" s="74"/>
     </row>
-    <row r="110" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="81" t="s">
+    <row r="110" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="72" t="s">
+        <v>676</v>
+      </c>
+      <c r="B110" s="73" t="s">
+        <v>677</v>
+      </c>
+      <c r="C110" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="H110" s="73" t="s">
+        <v>700</v>
+      </c>
+      <c r="I110" s="74"/>
+      <c r="J110" s="74"/>
+      <c r="O110" s="74"/>
+      <c r="P110" s="74"/>
+    </row>
+    <row r="111" spans="1:16" s="80" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="81" t="s">
         <v>698</v>
       </c>
-      <c r="B110" s="81" t="s">
+      <c r="B111" s="81" t="s">
         <v>697</v>
       </c>
-      <c r="C110" s="82"/>
-      <c r="D110" s="82"/>
-      <c r="E110" s="82"/>
-      <c r="F110" s="82"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="83" t="s">
+      <c r="C111" s="82"/>
+      <c r="D111" s="82"/>
+      <c r="E111" s="82"/>
+      <c r="F111" s="82"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="83" t="s">
         <v>701</v>
       </c>
-      <c r="I110" s="79"/>
-      <c r="J110" s="79"/>
-      <c r="K110" s="79"/>
-      <c r="L110" s="79"/>
-      <c r="N110" s="79"/>
-      <c r="O110" s="79"/>
-      <c r="P110" s="79"/>
-    </row>
-    <row r="111" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="72" t="s">
-        <v>678</v>
-      </c>
-      <c r="B111" s="73" t="s">
-        <v>679</v>
-      </c>
-      <c r="H111" s="73" t="s">
-        <v>704</v>
-      </c>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
+      <c r="I111" s="79"/>
+      <c r="J111" s="79"/>
+      <c r="K111" s="79"/>
+      <c r="L111" s="79"/>
+      <c r="N111" s="79"/>
+      <c r="O111" s="79"/>
+      <c r="P111" s="79"/>
     </row>
     <row r="112" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A112" s="72" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B112" s="73" t="s">
-        <v>681</v>
-      </c>
-      <c r="C112" s="74" t="s">
-        <v>237</v>
+        <v>679</v>
       </c>
       <c r="H112" s="73" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="I112" s="74"/>
       <c r="J112" s="74"/>
@@ -14490,136 +14510,140 @@
     </row>
     <row r="113" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A113" s="72" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B113" s="73" t="s">
-        <v>684</v>
-      </c>
-      <c r="C113" s="74"/>
+        <v>681</v>
+      </c>
+      <c r="C113" s="74" t="s">
+        <v>237</v>
+      </c>
       <c r="H113" s="73" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="I113" s="74"/>
       <c r="J113" s="74"/>
       <c r="O113" s="74"/>
       <c r="P113" s="74"/>
     </row>
-    <row r="114" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="69" t="s">
+    <row r="114" spans="1:16" s="73" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A114" s="72" t="s">
+        <v>683</v>
+      </c>
+      <c r="B114" s="73" t="s">
+        <v>684</v>
+      </c>
+      <c r="C114" s="74"/>
+      <c r="H114" s="73" t="s">
+        <v>685</v>
+      </c>
+      <c r="I114" s="74"/>
+      <c r="J114" s="74"/>
+      <c r="O114" s="74"/>
+      <c r="P114" s="74"/>
+    </row>
+    <row r="115" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B114" s="70" t="s">
+      <c r="B115" s="70" t="s">
         <v>368</v>
       </c>
-      <c r="C114" s="70"/>
-      <c r="D114" s="70"/>
-      <c r="E114" s="70"/>
-      <c r="F114" s="70"/>
-      <c r="G114" s="70"/>
-      <c r="I114" s="70"/>
-      <c r="J114" s="70"/>
-      <c r="K114" s="70"/>
-      <c r="L114" s="70"/>
-      <c r="N114" s="70"/>
-      <c r="O114" s="70"/>
-      <c r="P114" s="70"/>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A115" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="B115" s="73" t="s">
-        <v>702</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H115" s="72" t="s">
-        <v>719</v>
-      </c>
+      <c r="C115" s="70"/>
+      <c r="D115" s="70"/>
+      <c r="E115" s="70"/>
+      <c r="F115" s="70"/>
+      <c r="G115" s="70"/>
+      <c r="I115" s="70"/>
+      <c r="J115" s="70"/>
+      <c r="K115" s="70"/>
+      <c r="L115" s="70"/>
+      <c r="N115" s="70"/>
+      <c r="O115" s="70"/>
+      <c r="P115" s="70"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B116" s="73" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>236</v>
       </c>
       <c r="H116" s="72" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B117" s="73" t="s">
-        <v>372</v>
+        <v>703</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>236</v>
       </c>
       <c r="H117" s="72" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B118" s="73" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>236</v>
       </c>
       <c r="H118" s="72" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B119" s="73" t="s">
+        <v>376</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H119" s="72" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="119" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="69" t="s">
+    <row r="120" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B119" s="70" t="s">
+      <c r="B120" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="C119" s="70"/>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
-      <c r="G119" s="70"/>
-      <c r="I119" s="70"/>
-      <c r="J119" s="70"/>
-      <c r="K119" s="70"/>
-      <c r="L119" s="70"/>
-      <c r="N119" s="70"/>
-      <c r="O119" s="70"/>
-      <c r="P119" s="70"/>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A120" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="B120" s="73" t="s">
-        <v>394</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="K120" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="C120" s="70"/>
+      <c r="D120" s="70"/>
+      <c r="E120" s="70"/>
+      <c r="F120" s="70"/>
+      <c r="G120" s="70"/>
+      <c r="I120" s="70"/>
+      <c r="J120" s="70"/>
+      <c r="K120" s="70"/>
+      <c r="L120" s="70"/>
+      <c r="N120" s="70"/>
+      <c r="O120" s="70"/>
+      <c r="P120" s="70"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B121" s="73" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -14630,10 +14654,10 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="72" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B122" s="73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -14644,10 +14668,10 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="72" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B123" s="73" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -14658,10 +14682,10 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="72" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B124" s="73" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -14672,10 +14696,10 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="72" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B125" s="73" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -14686,10 +14710,10 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="72" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="B126" s="73" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -14700,10 +14724,10 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="72" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="B127" s="73" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -14714,10 +14738,10 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="72" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B128" s="73" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -14728,10 +14752,10 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="72" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B129" s="73" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -14742,10 +14766,10 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="72" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B130" s="73" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -14756,10 +14780,10 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="72" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B131" s="73" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -14770,10 +14794,10 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B132" s="73" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -14784,13 +14808,10 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="72" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B133" s="73" t="s">
-        <v>407</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>237</v>
+        <v>406</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -14801,10 +14822,13 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="72" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B134" s="73" t="s">
-        <v>408</v>
+        <v>407</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -14815,10 +14839,10 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B135" s="73" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -14827,43 +14851,46 @@
         <v>52</v>
       </c>
     </row>
-    <row r="136" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="69" t="s">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="72" t="s">
+        <v>393</v>
+      </c>
+      <c r="B136" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B136" s="70" t="s">
+      <c r="B137" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="C136" s="70"/>
-      <c r="D136" s="70"/>
-      <c r="E136" s="70"/>
-      <c r="F136" s="70"/>
-      <c r="G136" s="70"/>
-      <c r="I136" s="70"/>
-      <c r="J136" s="70"/>
-      <c r="K136" s="70"/>
-      <c r="L136" s="70"/>
-      <c r="N136" s="70"/>
-      <c r="O136" s="70"/>
-      <c r="P136" s="70"/>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A137" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B137" s="73" t="s">
-        <v>419</v>
-      </c>
-      <c r="K137" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C137" s="70"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="70"/>
+      <c r="G137" s="70"/>
+      <c r="I137" s="70"/>
+      <c r="J137" s="70"/>
+      <c r="K137" s="70"/>
+      <c r="L137" s="70"/>
+      <c r="N137" s="70"/>
+      <c r="O137" s="70"/>
+      <c r="P137" s="70"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B138" s="73" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K138" s="2" t="s">
         <v>48</v>
@@ -14871,10 +14898,10 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B139" s="73" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K139" s="2" t="s">
         <v>48</v>
@@ -14882,10 +14909,10 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B140" s="73" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K140" s="2" t="s">
         <v>48</v>
@@ -14893,10 +14920,10 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="B141" s="73" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="K141" s="2" t="s">
         <v>48</v>
@@ -14904,10 +14931,10 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B142" s="73" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="K142" s="2" t="s">
         <v>48</v>
@@ -14915,10 +14942,10 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B143" s="73" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K143" s="2" t="s">
         <v>48</v>
@@ -14926,10 +14953,10 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B144" s="73" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>48</v>
@@ -14937,55 +14964,52 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B145" s="73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K145" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="69" t="s">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B146" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B146" s="70" t="s">
+      <c r="B147" s="70" t="s">
         <v>604</v>
       </c>
-      <c r="C146" s="70"/>
-      <c r="D146" s="70"/>
-      <c r="E146" s="70"/>
-      <c r="F146" s="70"/>
-      <c r="G146" s="70"/>
-      <c r="I146" s="70"/>
-      <c r="J146" s="70"/>
-      <c r="K146" s="70"/>
-      <c r="L146" s="70"/>
-      <c r="N146" s="70"/>
-      <c r="O146" s="70"/>
-      <c r="P146" s="70"/>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A147" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B147" s="73" t="s">
-        <v>458</v>
-      </c>
-      <c r="C147" t="s">
-        <v>237</v>
-      </c>
-      <c r="K147" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="C147" s="70"/>
+      <c r="D147" s="70"/>
+      <c r="E147" s="70"/>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="I147" s="70"/>
+      <c r="J147" s="70"/>
+      <c r="K147" s="70"/>
+      <c r="L147" s="70"/>
+      <c r="N147" s="70"/>
+      <c r="O147" s="70"/>
+      <c r="P147" s="70"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B148" s="73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C148" t="s">
         <v>237</v>
@@ -14996,10 +15020,10 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B149" s="73" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C149" t="s">
         <v>237</v>
@@ -15010,10 +15034,10 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B150" s="73" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C150" t="s">
         <v>237</v>
@@ -15024,10 +15048,10 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B151" s="73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C151" t="s">
         <v>237</v>
@@ -15038,10 +15062,10 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B152" s="73" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C152" t="s">
         <v>237</v>
@@ -15052,10 +15076,10 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B153" s="73" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C153" t="s">
         <v>237</v>
@@ -15066,27 +15090,24 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B154" s="73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C154" t="s">
         <v>237</v>
       </c>
-      <c r="F154">
-        <v>0</v>
-      </c>
       <c r="K154" s="2" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B155" s="73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C155" t="s">
         <v>237</v>
@@ -15098,452 +15119,454 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="69" t="s">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="C156" t="s">
+        <v>237</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B156" s="70" t="s">
+      <c r="B157" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="C156" s="70"/>
-      <c r="D156" s="70"/>
-      <c r="E156" s="70"/>
-      <c r="F156" s="70"/>
-      <c r="G156" s="70"/>
-      <c r="I156" s="70"/>
-      <c r="J156" s="70"/>
-      <c r="K156" s="70"/>
-      <c r="L156" s="70"/>
-      <c r="N156" s="70"/>
-      <c r="O156" s="70"/>
-      <c r="P156" s="70"/>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A157" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157" s="73" t="s">
-        <v>543</v>
-      </c>
-      <c r="C157" t="s">
-        <v>237</v>
-      </c>
-      <c r="H157" s="72" t="s">
-        <v>605</v>
-      </c>
+      <c r="C157" s="70"/>
+      <c r="D157" s="70"/>
+      <c r="E157" s="70"/>
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
+      <c r="I157" s="70"/>
+      <c r="J157" s="70"/>
+      <c r="K157" s="70"/>
+      <c r="L157" s="70"/>
+      <c r="N157" s="70"/>
+      <c r="O157" s="70"/>
+      <c r="P157" s="70"/>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B158" s="73" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C158" t="s">
         <v>237</v>
       </c>
-      <c r="H158" s="73" t="s">
-        <v>606</v>
+      <c r="H158" s="72" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B159" s="73" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C159" t="s">
         <v>237</v>
       </c>
       <c r="H159" s="73" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B160" s="73" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C160" t="s">
         <v>237</v>
       </c>
       <c r="H160" s="73" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B161" s="73" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C161" t="s">
         <v>237</v>
       </c>
       <c r="H161" s="73" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B162" s="73" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C162" t="s">
         <v>237</v>
       </c>
       <c r="H162" s="73" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B163" s="73" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C163" t="s">
         <v>237</v>
       </c>
       <c r="H163" s="73" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B164" s="73" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C164" t="s">
         <v>237</v>
       </c>
       <c r="H164" s="73" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B165" s="73" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C165" t="s">
         <v>237</v>
       </c>
       <c r="H165" s="73" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166" s="73" t="s">
+        <v>551</v>
+      </c>
+      <c r="C166" t="s">
+        <v>237</v>
+      </c>
+      <c r="H166" s="73" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="166" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="69" t="s">
+    <row r="167" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B166" s="70" t="s">
+      <c r="B167" s="70" t="s">
         <v>432</v>
       </c>
-      <c r="C166" s="70"/>
-      <c r="D166" s="70"/>
-      <c r="E166" s="70"/>
-      <c r="F166" s="70"/>
-      <c r="G166" s="70"/>
-      <c r="I166" s="70"/>
-      <c r="J166" s="70"/>
-      <c r="K166" s="70"/>
-      <c r="L166" s="70"/>
-      <c r="N166" s="70"/>
-      <c r="O166" s="70"/>
-      <c r="P166" s="70"/>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A167" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B167" s="73" t="s">
-        <v>552</v>
-      </c>
-      <c r="C167" t="s">
-        <v>237</v>
-      </c>
-      <c r="H167" s="73" t="s">
-        <v>614</v>
-      </c>
+      <c r="C167" s="70"/>
+      <c r="D167" s="70"/>
+      <c r="E167" s="70"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="I167" s="70"/>
+      <c r="J167" s="70"/>
+      <c r="K167" s="70"/>
+      <c r="L167" s="70"/>
+      <c r="N167" s="70"/>
+      <c r="O167" s="70"/>
+      <c r="P167" s="70"/>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B168" s="73" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C168" t="s">
         <v>237</v>
       </c>
       <c r="H168" s="73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B169" s="73" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C169" t="s">
         <v>237</v>
       </c>
       <c r="H169" s="73" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B170" s="73" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C170" t="s">
         <v>237</v>
       </c>
       <c r="H170" s="73" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B171" s="73" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C171" t="s">
         <v>237</v>
       </c>
       <c r="H171" s="73" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B172" s="73" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C172" t="s">
         <v>237</v>
       </c>
       <c r="H172" s="73" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B173" s="73" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C173" t="s">
         <v>237</v>
       </c>
       <c r="H173" s="73" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B174" s="73" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C174" t="s">
         <v>237</v>
       </c>
       <c r="H174" s="73" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B175" s="73" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C175" t="s">
         <v>237</v>
       </c>
       <c r="H175" s="73" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B176" s="73" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C176" t="s">
         <v>237</v>
       </c>
       <c r="H176" s="73" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B177" s="73" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C177" t="s">
         <v>237</v>
       </c>
       <c r="H177" s="73" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B178" s="73" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C178" t="s">
         <v>237</v>
       </c>
       <c r="H178" s="73" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B179" s="73" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C179" t="s">
         <v>237</v>
       </c>
       <c r="H179" s="73" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>402</v>
+        <v>174</v>
       </c>
       <c r="B180" s="73" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C180" t="s">
         <v>237</v>
       </c>
-      <c r="H180" s="73"/>
-      <c r="K180" s="2" t="s">
-        <v>52</v>
+      <c r="H180" s="73" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>175</v>
+        <v>402</v>
       </c>
       <c r="B181" s="73" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C181" t="s">
         <v>237</v>
       </c>
-      <c r="H181" s="73" t="s">
-        <v>627</v>
+      <c r="H181" s="73"/>
+      <c r="K181" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B182" s="73" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C182" t="s">
         <v>237</v>
       </c>
       <c r="H182" s="73" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="73" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C183" t="s">
         <v>237</v>
       </c>
       <c r="H183" s="73" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B184" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="C184" t="s">
+        <v>237</v>
+      </c>
+      <c r="H184" s="73" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="184" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="69" t="s">
+    <row r="185" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B184" s="70" t="s">
+      <c r="B185" s="70" t="s">
         <v>478</v>
       </c>
-      <c r="C184" s="70"/>
-      <c r="D184" s="70"/>
-      <c r="E184" s="70"/>
-      <c r="F184" s="70"/>
-      <c r="G184" s="70"/>
-      <c r="I184" s="70"/>
-      <c r="J184" s="70"/>
-      <c r="K184" s="70"/>
-      <c r="L184" s="70"/>
-      <c r="N184" s="70"/>
-      <c r="O184" s="70"/>
-      <c r="P184" s="70"/>
-    </row>
-    <row r="185" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="84" t="s">
-        <v>706</v>
-      </c>
-      <c r="B185" s="85" t="s">
-        <v>705</v>
-      </c>
-      <c r="I185" s="87"/>
-      <c r="J185" s="87"/>
-      <c r="K185" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="O185" s="87"/>
-      <c r="P185" s="87"/>
+      <c r="C185" s="70"/>
+      <c r="D185" s="70"/>
+      <c r="E185" s="70"/>
+      <c r="F185" s="70"/>
+      <c r="G185" s="70"/>
+      <c r="I185" s="70"/>
+      <c r="J185" s="70"/>
+      <c r="K185" s="70"/>
+      <c r="L185" s="70"/>
+      <c r="N185" s="70"/>
+      <c r="O185" s="70"/>
+      <c r="P185" s="70"/>
     </row>
     <row r="186" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="84" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B186" s="85" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="I186" s="87"/>
       <c r="J186" s="87"/>
@@ -15553,23 +15576,27 @@
       <c r="O186" s="87"/>
       <c r="P186" s="87"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A187" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B187" s="73" t="s">
-        <v>570</v>
-      </c>
-      <c r="K187" s="2" t="s">
+    <row r="187" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="84" t="s">
+        <v>707</v>
+      </c>
+      <c r="B187" s="85" t="s">
+        <v>708</v>
+      </c>
+      <c r="I187" s="87"/>
+      <c r="J187" s="87"/>
+      <c r="K187" s="87" t="s">
         <v>54</v>
       </c>
+      <c r="O187" s="87"/>
+      <c r="P187" s="87"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B188" s="73" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K188" s="2" t="s">
         <v>54</v>
@@ -15577,10 +15604,10 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B189" s="73" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>54</v>
@@ -15588,10 +15615,10 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B190" s="73" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K190" s="2" t="s">
         <v>54</v>
@@ -15599,10 +15626,10 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B191" s="73" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K191" s="2" t="s">
         <v>54</v>
@@ -15610,10 +15637,10 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B192" s="73" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K192" s="2" t="s">
         <v>54</v>
@@ -15621,10 +15648,10 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B193" s="73" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K193" s="2" t="s">
         <v>54</v>
@@ -15632,10 +15659,10 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B194" s="73" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K194" s="2" t="s">
         <v>54</v>
@@ -15643,113 +15670,108 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B195" s="73" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K195" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="196" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="69" t="s">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="B196" s="73" t="s">
+        <v>577</v>
+      </c>
+      <c r="K196" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B196" s="70" t="s">
+      <c r="B197" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="C196" s="70"/>
-      <c r="D196" s="70"/>
-      <c r="E196" s="70"/>
-      <c r="F196" s="70"/>
-      <c r="G196" s="70"/>
-      <c r="I196" s="70"/>
-      <c r="J196" s="70"/>
-      <c r="K196" s="70"/>
-      <c r="L196" s="70"/>
-      <c r="N196" s="70"/>
-      <c r="O196" s="70"/>
-      <c r="P196" s="70"/>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A197" s="4" t="s">
+      <c r="C197" s="70"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="70"/>
+      <c r="F197" s="70"/>
+      <c r="G197" s="70"/>
+      <c r="I197" s="70"/>
+      <c r="J197" s="70"/>
+      <c r="K197" s="70"/>
+      <c r="L197" s="70"/>
+      <c r="N197" s="70"/>
+      <c r="O197" s="70"/>
+      <c r="P197" s="70"/>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
         <v>476</v>
       </c>
-      <c r="B197" s="73" t="s">
+      <c r="B198" s="73" t="s">
         <v>578</v>
-      </c>
-      <c r="C197" t="s">
-        <v>236</v>
-      </c>
-      <c r="H197" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="B198" s="73" t="s">
-        <v>579</v>
       </c>
       <c r="C198" t="s">
         <v>236</v>
       </c>
-      <c r="H198" s="77" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>709</v>
+        <v>477</v>
       </c>
       <c r="B199" s="73" t="s">
-        <v>710</v>
+        <v>579</v>
       </c>
       <c r="C199" t="s">
         <v>236</v>
       </c>
-      <c r="H199" t="s">
-        <v>728</v>
+      <c r="H199" s="77" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="B200" s="73" t="s">
+        <v>710</v>
+      </c>
+      <c r="C200" t="s">
+        <v>236</v>
+      </c>
+      <c r="H200" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="B200" s="73" t="s">
+      <c r="B201" s="73" t="s">
         <v>714</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>715</v>
       </c>
-      <c r="K200" s="87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="84" t="s">
-        <v>725</v>
-      </c>
-      <c r="B201" s="85" t="s">
-        <v>727</v>
-      </c>
-      <c r="H201" s="88"/>
-      <c r="I201" s="87"/>
-      <c r="J201" s="87"/>
       <c r="K201" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="O201" s="87"/>
-      <c r="P201" s="87"/>
     </row>
     <row r="202" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="84" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B202" s="85" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="H202" s="88"/>
       <c r="I202" s="87"/>
@@ -15760,57 +15782,62 @@
       <c r="O202" s="87"/>
       <c r="P202" s="87"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A203" s="4" t="s">
+    <row r="203" spans="1:16" s="86" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="84" t="s">
+        <v>724</v>
+      </c>
+      <c r="B203" s="85" t="s">
+        <v>726</v>
+      </c>
+      <c r="H203" s="88"/>
+      <c r="I203" s="87"/>
+      <c r="J203" s="87"/>
+      <c r="K203" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="O203" s="87"/>
+      <c r="P203" s="87"/>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="B203" s="73" t="s">
+      <c r="B204" s="73" t="s">
         <v>580</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C204" t="s">
         <v>236</v>
       </c>
-      <c r="H203" t="s">
+      <c r="H204" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="204" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="69" t="s">
+    <row r="205" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B204" s="70" t="s">
+      <c r="B205" s="70" t="s">
         <v>479</v>
       </c>
-      <c r="C204" s="70"/>
-      <c r="D204" s="70"/>
-      <c r="E204" s="70"/>
-      <c r="F204" s="70"/>
-      <c r="G204" s="70"/>
-      <c r="I204" s="70"/>
-      <c r="J204" s="70"/>
-      <c r="K204" s="70"/>
-      <c r="L204" s="70"/>
-      <c r="N204" s="70"/>
-      <c r="O204" s="70"/>
-      <c r="P204" s="70"/>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A205" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="B205" s="73" t="s">
-        <v>581</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>54</v>
-      </c>
+      <c r="C205" s="70"/>
+      <c r="D205" s="70"/>
+      <c r="E205" s="70"/>
+      <c r="F205" s="70"/>
+      <c r="G205" s="70"/>
+      <c r="I205" s="70"/>
+      <c r="J205" s="70"/>
+      <c r="K205" s="70"/>
+      <c r="L205" s="70"/>
+      <c r="N205" s="70"/>
+      <c r="O205" s="70"/>
+      <c r="P205" s="70"/>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B206" s="73" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K206" s="2" t="s">
         <v>54</v>
@@ -15818,10 +15845,10 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B207" s="73" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K207" s="2" t="s">
         <v>54</v>
@@ -15829,10 +15856,10 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B208" s="73" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K208" s="2" t="s">
         <v>54</v>
@@ -15840,10 +15867,10 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B209" s="73" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K209" s="2" t="s">
         <v>54</v>
@@ -15851,10 +15878,10 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B210" s="73" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K210" s="2" t="s">
         <v>54</v>
@@ -15862,10 +15889,10 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B211" s="73" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K211" s="2" t="s">
         <v>54</v>
@@ -15873,10 +15900,10 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B212" s="73" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K212" s="2" t="s">
         <v>54</v>
@@ -15884,10 +15911,10 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B213" s="73" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="K213" s="2" t="s">
         <v>54</v>
@@ -15895,10 +15922,10 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B214" s="73" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K214" s="2" t="s">
         <v>54</v>
@@ -15906,10 +15933,10 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B215" s="73" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K215" s="2" t="s">
         <v>54</v>
@@ -15917,10 +15944,10 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B216" s="73" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K216" s="2" t="s">
         <v>54</v>
@@ -15928,353 +15955,374 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B217" s="73" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K217" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="218" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="69" t="s">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B218" s="73" t="s">
+        <v>593</v>
+      </c>
+      <c r="K218" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B218" s="70" t="s">
+      <c r="B219" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="C218" s="70"/>
-      <c r="D218" s="70"/>
-      <c r="E218" s="70"/>
-      <c r="F218" s="70"/>
-      <c r="G218" s="70"/>
-      <c r="I218" s="70"/>
-      <c r="J218" s="70"/>
-      <c r="K218" s="70"/>
-      <c r="L218" s="70"/>
-      <c r="N218" s="70"/>
-      <c r="O218" s="70"/>
-      <c r="P218" s="70"/>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A219" s="4" t="s">
+      <c r="C219" s="70"/>
+      <c r="D219" s="70"/>
+      <c r="E219" s="70"/>
+      <c r="F219" s="70"/>
+      <c r="G219" s="70"/>
+      <c r="I219" s="70"/>
+      <c r="J219" s="70"/>
+      <c r="K219" s="70"/>
+      <c r="L219" s="70"/>
+      <c r="N219" s="70"/>
+      <c r="O219" s="70"/>
+      <c r="P219" s="70"/>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
         <v>493</v>
       </c>
-      <c r="B219" s="73" t="s">
+      <c r="B220" s="73" t="s">
         <v>594</v>
-      </c>
-      <c r="C219" t="s">
-        <v>236</v>
-      </c>
-      <c r="H219" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="B220" s="73" t="s">
-        <v>595</v>
       </c>
       <c r="C220" t="s">
         <v>236</v>
       </c>
-      <c r="H220" s="77" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B221" s="73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C221" t="s">
         <v>236</v>
       </c>
-      <c r="H221" t="s">
-        <v>631</v>
+      <c r="H221" s="77" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>451</v>
+        <v>495</v>
       </c>
       <c r="B222" s="73" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C222" t="s">
         <v>236</v>
       </c>
       <c r="H222" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
       <c r="B223" s="73" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C223" t="s">
         <v>236</v>
       </c>
       <c r="H223" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B224" s="73" t="s">
+        <v>598</v>
+      </c>
+      <c r="C224" t="s">
+        <v>236</v>
+      </c>
+      <c r="H224" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="224" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="69" t="s">
+    <row r="225" spans="1:16" s="71" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="B224" s="70" t="s">
+      <c r="B225" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="C224" s="70"/>
-      <c r="D224" s="70"/>
-      <c r="E224" s="70"/>
-      <c r="F224" s="70"/>
-      <c r="G224" s="70"/>
-      <c r="I224" s="70"/>
-      <c r="J224" s="70"/>
-      <c r="K224" s="70"/>
-      <c r="L224" s="70"/>
-      <c r="N224" s="70"/>
-      <c r="O224" s="70"/>
-      <c r="P224" s="70"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="4" t="s">
+      <c r="C225" s="70"/>
+      <c r="D225" s="70"/>
+      <c r="E225" s="70"/>
+      <c r="F225" s="70"/>
+      <c r="G225" s="70"/>
+      <c r="I225" s="70"/>
+      <c r="J225" s="70"/>
+      <c r="K225" s="70"/>
+      <c r="L225" s="70"/>
+      <c r="N225" s="70"/>
+      <c r="O225" s="70"/>
+      <c r="P225" s="70"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="B225" s="73" t="s">
+      <c r="B226" s="73" t="s">
         <v>599</v>
-      </c>
-      <c r="C225" t="s">
-        <v>236</v>
-      </c>
-      <c r="H225" t="s">
-        <v>634</v>
-      </c>
-      <c r="K225" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B226" s="73" t="s">
-        <v>600</v>
       </c>
       <c r="C226" t="s">
         <v>236</v>
       </c>
       <c r="H226" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K226" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>498</v>
+        <v>445</v>
       </c>
       <c r="B227" s="73" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C227" t="s">
         <v>236</v>
       </c>
       <c r="H227" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K227" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B228" s="73" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C228" t="s">
         <v>236</v>
       </c>
       <c r="H228" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K228" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B229" s="73" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
       </c>
       <c r="H229" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K229" s="2" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B230" s="73" t="s">
+        <v>603</v>
+      </c>
+      <c r="C230" t="s">
+        <v>236</v>
+      </c>
+      <c r="H230" t="s">
+        <v>638</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B3:B5 B7:B39 B41:B44 B46:B51 B69:B72 B80:B85 B87:B90 B53:B67 B74:B78 B92:B106 B108:B113 B115:B118 B120:B1048576">
-    <cfRule type="expression" dxfId="27" priority="38">
+  <conditionalFormatting sqref="B1 B3:B5 B7:B39 B41:B44 B46:B51 B69:B72 B81:B86 B88:B91 B53:B67 B75:B79 B93:B107 B109:B114 B116:B119 B121:B1048576">
+    <cfRule type="expression" dxfId="29" priority="40">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K3:K5 K7:K39 K46:K51 K69:K72 K80:K85 K87:K90 K41:K44 K53:K67 K74:K78 K92:K113 K115:K118 K120:K1048576">
-    <cfRule type="expression" dxfId="26" priority="36">
+  <conditionalFormatting sqref="K3:K5 K7:K39 K46:K51 K69:K72 K81:K86 K88:K91 K41:K44 K53:K67 K75:K79 K93:K114 K116:K119 K121:K1048576">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>AND(L3&lt;&gt;"",NOT(K3&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="expression" dxfId="25" priority="34">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="expression" dxfId="24" priority="33">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>AND(L2&lt;&gt;"",NOT(K2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="23" priority="30">
+    <cfRule type="expression" dxfId="25" priority="32">
       <formula>AND(A6&lt;&gt;"",NOT(B6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6">
-    <cfRule type="expression" dxfId="22" priority="29">
+    <cfRule type="expression" dxfId="24" priority="31">
       <formula>AND(L6&lt;&gt;"",NOT(K6&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="21" priority="28">
+    <cfRule type="expression" dxfId="23" priority="30">
       <formula>AND(A40&lt;&gt;"",NOT(B40&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K40">
-    <cfRule type="expression" dxfId="20" priority="27">
+    <cfRule type="expression" dxfId="22" priority="29">
       <formula>AND(L40&lt;&gt;"",NOT(K40&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="21" priority="28">
       <formula>AND(A45&lt;&gt;"",NOT(B45&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45">
-    <cfRule type="expression" dxfId="18" priority="25">
+    <cfRule type="expression" dxfId="20" priority="27">
       <formula>AND(L45&lt;&gt;"",NOT(K45&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>AND(A52&lt;&gt;"",NOT(B52&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52">
-    <cfRule type="expression" dxfId="16" priority="23">
+    <cfRule type="expression" dxfId="18" priority="25">
       <formula>AND(L52&lt;&gt;"",NOT(K52&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B68">
-    <cfRule type="expression" dxfId="15" priority="20">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>AND(A68&lt;&gt;"",NOT(B68&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K68">
-    <cfRule type="expression" dxfId="14" priority="19">
+    <cfRule type="expression" dxfId="16" priority="21">
       <formula>AND(L68&lt;&gt;"",NOT(K68&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B74">
+    <cfRule type="expression" dxfId="15" priority="20">
+      <formula>AND(A74&lt;&gt;"",NOT(B74&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K74">
+    <cfRule type="expression" dxfId="14" priority="19">
+      <formula>AND(L74&lt;&gt;"",NOT(K74&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B80">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(A80&lt;&gt;"",NOT(B80&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K80">
+    <cfRule type="expression" dxfId="12" priority="17">
+      <formula>AND(L80&lt;&gt;"",NOT(K80&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B87">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(A87&lt;&gt;"",NOT(B87&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K87">
+    <cfRule type="expression" dxfId="10" priority="15">
+      <formula>AND(L87&lt;&gt;"",NOT(K87&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B92">
+    <cfRule type="expression" dxfId="9" priority="14">
+      <formula>AND(A92&lt;&gt;"",NOT(B92&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K92">
+    <cfRule type="expression" dxfId="8" priority="13">
+      <formula>AND(L92&lt;&gt;"",NOT(K92&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B115">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(A115&lt;&gt;"",NOT(B115&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K115">
+    <cfRule type="expression" dxfId="6" priority="9">
+      <formula>AND(L115&lt;&gt;"",NOT(K115&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B120">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(A120&lt;&gt;"",NOT(B120&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K120">
+    <cfRule type="expression" dxfId="4" priority="7">
+      <formula>AND(L120&lt;&gt;"",NOT(K120&lt;&gt;""))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B73">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(A73&lt;&gt;"",NOT(B73&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K73">
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>AND(L73&lt;&gt;"",NOT(K73&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B79">
-    <cfRule type="expression" dxfId="11" priority="16">
-      <formula>AND(A79&lt;&gt;"",NOT(B79&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K79">
-    <cfRule type="expression" dxfId="10" priority="15">
-      <formula>AND(L79&lt;&gt;"",NOT(K79&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B86">
-    <cfRule type="expression" dxfId="9" priority="14">
-      <formula>AND(A86&lt;&gt;"",NOT(B86&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K86">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>AND(L86&lt;&gt;"",NOT(K86&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B91">
-    <cfRule type="expression" dxfId="7" priority="12">
-      <formula>AND(A91&lt;&gt;"",NOT(B91&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K91">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>AND(L91&lt;&gt;"",NOT(K91&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B114">
-    <cfRule type="expression" dxfId="5" priority="8">
-      <formula>AND(A114&lt;&gt;"",NOT(B114&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K114">
-    <cfRule type="expression" dxfId="4" priority="7">
-      <formula>AND(L114&lt;&gt;"",NOT(K114&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>AND(A119&lt;&gt;"",NOT(B119&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K119">
-    <cfRule type="expression" dxfId="2" priority="5">
-      <formula>AND(L119&lt;&gt;"",NOT(K119&lt;&gt;""))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D6 D40 D45 D52 D59:D63 D68 D73 D79 D86 D91 D114 D119 D146 D156 D166 D184:D186 D204 D224 D196 D218 D136:D143 D110 D98:D106" xr:uid="{3C5E5528-F961-4CFC-83ED-CB90A50DF965}"/>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D108:D1048576 D2:D106" xr:uid="{7B357739-ECEB-45D0-9FF6-C94815526279}">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D2 D6 D40 D45 D52 D59:D63 D68 D74 D80 D87 D92 D115 D120 D147 D157 D167 D185:D187 D205 D225 D197 D219 D137:D144 D111 D99:D107" xr:uid="{3C5E5528-F961-4CFC-83ED-CB90A50DF965}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D109:D1048576 D2:D107" xr:uid="{7B357739-ECEB-45D0-9FF6-C94815526279}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C108:C1048576 C2:C106" xr:uid="{23A69AD6-56EA-4510-BE84-B964156BC5E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C109:C1048576 C2:C107" xr:uid="{23A69AD6-56EA-4510-BE84-B964156BC5E6}">
       <formula1>"rate, probability, number, proportion, duration"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576 O2:P1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:P1048576 I2:I1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A1:A106 A108:A1048576" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A109:A1048576 A1:A107" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">
       <formula1>COUNTIF(A:A,A1)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -16285,7 +16333,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="35" id="{BE3DBFB1-F6C9-4726-B787-A3DD602656FE}">
+          <x14:cfRule type="expression" priority="37" id="{BE3DBFB1-F6C9-4726-B787-A3DD602656FE}">
             <xm:f>AND(K3&lt;&gt;"",ISERROR(MATCH(K3,'Databook Pages'!$A:$A,0)))</xm:f>
             <x14:dxf>
               <fill>
@@ -16295,7 +16343,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K3:K5 K7:K39 K46:K51 K69:K72 K80:K85 K87:K90 K197:K203 K219:K223 K41:K44 K60:K67 K53:K58 K74:K78 K205:K217 K225:K1048576 K106:K113 K92:K97 K137:K145 K147:K155 K120:K135 K167:K183 K157:K165 K115:K118 K185:K195</xm:sqref>
+          <xm:sqref>K3:K5 K7:K39 K46:K51 K69:K72 K81:K86 K88:K91 K198:K204 K220:K224 K41:K44 K60:K67 K53:K58 K75:K79 K206:K218 K226:K1048576 K107:K114 K93:K98 K138:K146 K148:K156 K121:K136 K168:K184 K158:K166 K116:K119 K186:K196</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -16305,13 +16353,13 @@
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
-          <xm:sqref>K1 K3:K5 K7:K39 K219:K223 K46:K51 K69:K72 K53:K58 K80:K85 K87:K90 K74:K78 K106:K113 K197:K203 K205:K217 K187:K195 K41:K44 K60:K67 K225:K1048576 K92:K97 K137:K145 K147:K155 K120:K135 K167:K183 K157:K165 K115:K118</xm:sqref>
+          <xm:sqref>K1 K3:K5 K7:K39 K220:K224 K46:K51 K116:K119 K53:K58 K81:K86 K88:K91 K75:K79 K107:K114 K198:K204 K206:K218 K188:K196 K41:K44 K60:K67 K226:K1048576 K93:K98 K138:K146 K148:K156 K121:K136 K168:K184 K158:K166 K69:K72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A5BACFCF-5A80-4E38-B286-225138198031}">
           <x14:formula1>
             <xm:f>'Population types'!$A$2:$A$9999</xm:f>
           </x14:formula1>
-          <xm:sqref>N1 N3:N5 N7:N39 N41:N44 N46:N51 N69:N72 N74:N78 N80:N85 N87:N90 N107:N113 N197:N203 N225:N1048576 N187:N195 N205:N217 N219:N223 N60:N67 N53:N58 N92:N97 N137:N145 N147:N155 N120:N135 N167:N183 N157:N165 N115:N118</xm:sqref>
+          <xm:sqref>N1 N3:N5 N7:N39 N41:N44 N46:N51 N116:N119 N75:N79 N81:N86 N88:N91 N108:N114 N198:N204 N226:N1048576 N188:N196 N206:N218 N220:N224 N60:N67 N53:N58 N93:N98 N138:N146 N148:N156 N121:N136 N168:N184 N158:N166 N69:N72</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -16408,7 +16456,7 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
